--- a/17 - Analise de Eventos.xlsx
+++ b/17 - Analise de Eventos.xlsx
@@ -55,13 +55,13 @@
     <t xml:space="preserve">Extemporâneo</t>
   </si>
   <si>
-    <t xml:space="preserve">Tratar Escolha de Terno</t>
+    <t xml:space="preserve">Alugar Terno</t>
   </si>
   <si>
     <t xml:space="preserve">FB</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente é atendido</t>
+    <t xml:space="preserve">Cliente consulta ternos</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -85,10 +85,10 @@
     <t xml:space="preserve">Entregar Terno</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente efetua pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terno é Entregue</t>
+    <t xml:space="preserve">Caixa efetua pagamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caixa entrega Terno</t>
   </si>
   <si>
     <t xml:space="preserve">x(4)</t>
@@ -381,10 +381,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.27"/>
@@ -531,10 +531,10 @@
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="10"/>
@@ -592,7 +592,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
